--- a/Stochastik/Punkte_Stochastik1.xlsx
+++ b/Stochastik/Punkte_Stochastik1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\SoSe-2019\Stochastik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C435349-4399-494C-AA9E-F1ACBEB39930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A47F99-9D66-460D-B076-36EA96101685}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,9 +564,15 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -647,15 +653,15 @@
       </c>
       <c r="C19">
         <f>SUM(C4:C17)</f>
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <f>SUM(D4:D17)</f>
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F19">
         <f xml:space="preserve"> C19/D19</f>
-        <v>0.68181818181818177</v>
+        <v>0.72641509433962259</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastik/Punkte_Stochastik1.xlsx
+++ b/Stochastik/Punkte_Stochastik1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\SoSe-2019\Stochastik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A47F99-9D66-460D-B076-36EA96101685}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFC4270-7E45-4D2E-8A70-C261AC40DB9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
+    <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="18684" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Blatt 1</t>
   </si>
@@ -86,7 +86,13 @@
     <t>Blatt 13</t>
   </si>
   <si>
-    <t>Blatt 14</t>
+    <t>Insgesamt ungefähr:</t>
+  </si>
+  <si>
+    <t>Also noch ca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Punkte</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594C6FDD-6A27-4D0D-A7BF-4DD85F02FFA9}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +502,7 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F17" si="0" xml:space="preserve"> C4/D4</f>
+        <f t="shared" ref="F4:F16" si="0" xml:space="preserve"> C4/D4</f>
         <v>0.52941176470588236</v>
       </c>
     </row>
@@ -579,33 +585,54 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C10">
+        <v>4.5</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C11">
+        <v>6.5</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C12">
+        <v>7.5</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
       <c r="F13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -638,30 +665,42 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C4:C16)</f>
+        <v>95.5</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D4:D16)</f>
+        <v>156</v>
+      </c>
+      <c r="F18">
+        <f xml:space="preserve"> C18/D18</f>
+        <v>0.61217948717948723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="F17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <f>SUM(C4:C17)</f>
-        <v>77</v>
-      </c>
-      <c r="D19">
-        <f>SUM(D4:D17)</f>
-        <v>106</v>
-      </c>
-      <c r="F19">
-        <f xml:space="preserve"> C19/D19</f>
-        <v>0.72641509433962259</v>
+      <c r="C20">
+        <f xml:space="preserve"> C18/(8*18+3*17+2*16)</f>
+        <v>0.42070484581497797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f xml:space="preserve"> (8*18+3*17+2*16)/2-C18</f>
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastik/Punkte_Stochastik1.xlsx
+++ b/Stochastik/Punkte_Stochastik1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\SoSe-2019\Stochastik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFC4270-7E45-4D2E-8A70-C261AC40DB9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12789B04-C56E-4A6F-85BF-2A7FC5046FF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="18684" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,6 +642,9 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
       <c r="F14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>

--- a/Stochastik/Punkte_Stochastik1.xlsx
+++ b/Stochastik/Punkte_Stochastik1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\SoSe-2019\Stochastik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12789B04-C56E-4A6F-85BF-2A7FC5046FF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C6016-0AA2-4FBC-8405-02B2CF6B51C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="18684" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,12 +630,15 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
         <v>17</v>
       </c>
-      <c r="F13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.41176470588235292</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,15 +677,15 @@
       </c>
       <c r="C18">
         <f>SUM(C4:C16)</f>
-        <v>95.5</v>
+        <v>102.5</v>
       </c>
       <c r="D18">
         <f>SUM(D4:D16)</f>
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F18">
         <f xml:space="preserve"> C18/D18</f>
-        <v>0.61217948717948723</v>
+        <v>0.59248554913294793</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,7 +694,7 @@
       </c>
       <c r="C20">
         <f xml:space="preserve"> C18/(8*18+3*17+2*16)</f>
-        <v>0.42070484581497797</v>
+        <v>0.45154185022026433</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -699,8 +702,8 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <f xml:space="preserve"> (8*18+3*17+2*16)/2-C18</f>
-        <v>18</v>
+        <f xml:space="preserve"> (7*18+4*17+2*16)/2-C18</f>
+        <v>10.5</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
